--- a/data/proveedor/teddy/listos/tiendaNube/teddy.xlsx
+++ b/data/proveedor/teddy/listos/tiendaNube/teddy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="56" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -461,49 +461,1169 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>teddy-sonajero-platitos</t>
+          <t>cubre-cochecito</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>556</v>
+        <v>4235</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>612</v>
+        <v>4658</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>teddy-sonajero-bolita</t>
+          <t>PLATO-TERMICO-3-DIVISIONES</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>695</v>
+        <v>2770</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>765</v>
+        <v>3047</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
+          <t>BABITAS-X-2-UNIDADES</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2115</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>taza-2-en-1</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1591</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>ASPIRADOR-NASAL-ERGONoMETRO</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1421</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1563</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ASPIRADOR-NASAL-ERGONoMETRO-C-2-PICOS</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1573</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>mordillo-refrigerante-pato-dormilon</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1683</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>mordillo-refrigerante-hipo-equilibrista</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1683</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>PLATO-TeRMICO-SIN-DIVISIONES</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2182</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>TOALLON-CCAPUOCHA</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>4719</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>5191</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>cuchara-avioncito</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1101</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1211</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>juego-de-cubiertos</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>955</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>cadena-porta-chupete</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>CAJITA-SONAJERO-COCHECITO-FANTASIA</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>3176</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>3494</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>taza-con-asa-y-tapa</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>701</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>771</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>sonajero-hipo-equilibrista</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1137</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>sonajero-pato-dormilon</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1137</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>PLATO-VASITO-CUBIERTOS</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1173</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1290</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>porta-chupete-osito</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>porta-chupete-corazon</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>mordillo-refrigerante-medalla-fantasia</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1476</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1624</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>combo-plato-vaso-cuchara-avioncito</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1173</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1290</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>protector-de-mosquitos</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>2087</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>2296</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>mordillo-refrigerante-color</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1488</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1637</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>esponja-bebe</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>847</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>932</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
           <t>teddy-sonajero-bolita-fluo</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>701</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>771</v>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="B27" s="2" t="n">
+        <v>859</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>945</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>mordillo-refrigerante</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>1597</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>taza-3-en-1</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>2087</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>2296</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>BANDANA-X-1-UNIDAD</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>1149</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1264</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>vaso-bebe-decorado</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1297</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>cepillos-limpiamamadera-con-mango</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>1119</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>chupete-cristal-con-tetina-de-latex</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1164</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>teddy-biberon-acinturado-con-tetina-250-ml-latex</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>1744</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>teddy-biberon-tradicional-con-tetina-140-ml-latex</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>tetina-tradicional-de-latex</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>tetina-latex-x-2-c-flujos</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Ajuar-Chico</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>7852</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>8637</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>teddy-cambiador-plastico</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>2299</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>2529</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>chupete-decorado-con-tetina-de-latex</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1184</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>SONAJERO-COLGANTE-PARA-CUNACOCHECITO</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1318</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>chupete-decorado-con-tetina-de-silicona</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1344</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>biberon-tradicional-con-tetina-de-latex-250-ml</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>combo-plato-cuchara-avioncito-taza</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1304</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Ajuar-Grande</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>9801</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>10781</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>vaso-sorbito</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>teddy-biberon-acinturado-con-tetina-140-ml-silicona</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1609</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1770</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>chupete-recien-nacido-con-tetina-de-silicona-2-unidades</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>1784</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1962</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>teddy-sonajero-bolita</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>840</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>924</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>teddy-biberon-acinturado-con-tetina-250-ml-silicona</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>1681</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1849</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>chupete-cristal-con-tetina-de-silicona</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>1264</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>sonajero-medalla-fantasia</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>986</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>teddy-biberon-tradicional-con-tetina-140-ml-silicona</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1703</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>BABERO-TOWEL-CHICO</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>816</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>898</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>teddy-biberon-boca-ancha-250-ml</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>2214</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>2435</v>
+      </c>
+      <c r="D55" s="2" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>tetina-de-latex-1-unidad</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>825</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>combo-plato-cubiertos-sonajero</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>1149</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1264</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>chupete-bicolor-con-tetina-de-silicona</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>1149</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1264</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>chupete-bicolor-con-tetina-latex</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>teddy-biberon-acinturado-con-tetina-140-ml-latex</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1663</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>teddy-biberon-tradicional-con-tetina-250-ml-silicona</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>1597</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1757</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>tetina-boca-ancha-de-silicona-2-unidades</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>BABERO-TOWEL-GRANDE</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>943</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>teddy-portamamadera</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>1161</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1277</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>VASO-ANTIDERRAME-cagarradera</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>2442</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>combo-plato-cuchara-avioncito-esponja</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>1306</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1437</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>combo-plato-cubiertos-taza</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1663</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>teddy-sonajero-platitos</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>665</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>732</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>tetina-tradicional-de-silicona-2-unidades</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1397</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>chupete-recien-nacido-con-tetina-latex-2-unidades</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>1597</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1757</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>chup-total-de-silicona-anatomico</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1464</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>chupete-100-silicona-redondo</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1464</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>SONAJERO-CUNEROCOCHECITO-BOLITAS-FLUO</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>1464</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>SONAJERO-CUNEROCOCHECITO-BOLITAS</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
